--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8F0FC-3D34-2847-9282-C431D03CF7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F71E5D-CDD3-FD49-8080-DA3177B87738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -779,6 +779,9 @@
                 <c:pt idx="171">
                   <c:v>45147</c:v>
                 </c:pt>
+                <c:pt idx="172">
+                  <c:v>45149</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1303,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>5098</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,6 +1872,9 @@
                 <c:pt idx="171">
                   <c:v>45147</c:v>
                 </c:pt>
+                <c:pt idx="172">
+                  <c:v>45149</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2390,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>4062</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,6 +2967,9 @@
                 <c:pt idx="171">
                   <c:v>45147</c:v>
                 </c:pt>
+                <c:pt idx="172">
+                  <c:v>45149</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3478,6 +3493,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="171">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -4063,6 +4081,9 @@
                 <c:pt idx="171">
                   <c:v>45147</c:v>
                 </c:pt>
+                <c:pt idx="172">
+                  <c:v>45149</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4586,6 +4607,9 @@
                   <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="171">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="172">
                   <c:v>472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5815,13 +5839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12280,6 +12304,43 @@
         <v>564</v>
       </c>
       <c r="K174" s="7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B175" s="2">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175" si="266">SUM(D175:F175)</f>
+        <v>1673</v>
+      </c>
+      <c r="D175">
+        <v>1105</v>
+      </c>
+      <c r="E175">
+        <v>371</v>
+      </c>
+      <c r="F175" s="3">
+        <v>197</v>
+      </c>
+      <c r="G175" s="4">
+        <v>58</v>
+      </c>
+      <c r="H175">
+        <f t="shared" ref="H175" si="267">SUM(I175:K175)</f>
+        <v>5091</v>
+      </c>
+      <c r="I175" s="5">
+        <v>4055</v>
+      </c>
+      <c r="J175" s="6">
+        <v>564</v>
+      </c>
+      <c r="K175" s="7">
         <v>472</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F71E5D-CDD3-FD49-8080-DA3177B87738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC6653-160D-BC4B-80B7-9065657F9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -782,6 +782,9 @@
                 <c:pt idx="172">
                   <c:v>45149</c:v>
                 </c:pt>
+                <c:pt idx="173">
+                  <c:v>45150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1309,6 +1312,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>5091</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,6 +1881,9 @@
                 <c:pt idx="172">
                   <c:v>45149</c:v>
                 </c:pt>
+                <c:pt idx="173">
+                  <c:v>45150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2402,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,6 +2982,9 @@
                 <c:pt idx="172">
                   <c:v>45149</c:v>
                 </c:pt>
+                <c:pt idx="173">
+                  <c:v>45150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3496,6 +3511,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
@@ -4084,6 +4102,9 @@
                 <c:pt idx="172">
                   <c:v>45149</c:v>
                 </c:pt>
+                <c:pt idx="173">
+                  <c:v>45150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4611,6 +4632,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5839,7 +5863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
@@ -12342,6 +12366,43 @@
       </c>
       <c r="K175" s="7">
         <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45150</v>
+      </c>
+      <c r="B176" s="2">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176" si="268">SUM(D176:F176)</f>
+        <v>1673</v>
+      </c>
+      <c r="D176">
+        <v>1105</v>
+      </c>
+      <c r="E176">
+        <v>371</v>
+      </c>
+      <c r="F176" s="3">
+        <v>197</v>
+      </c>
+      <c r="G176" s="4">
+        <v>58</v>
+      </c>
+      <c r="H176">
+        <f t="shared" ref="H176" si="269">SUM(I176:K176)</f>
+        <v>5097</v>
+      </c>
+      <c r="I176" s="5">
+        <v>4060</v>
+      </c>
+      <c r="J176" s="6">
+        <v>564</v>
+      </c>
+      <c r="K176" s="7">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC6653-160D-BC4B-80B7-9065657F9A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F281113-CCCA-6749-8383-E76B8DE571FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -785,6 +785,9 @@
                 <c:pt idx="173">
                   <c:v>45150</c:v>
                 </c:pt>
+                <c:pt idx="174">
+                  <c:v>45154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1315,6 +1318,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>5097</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,6 +1890,9 @@
                 <c:pt idx="173">
                   <c:v>45150</c:v>
                 </c:pt>
+                <c:pt idx="174">
+                  <c:v>45154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2414,6 +2423,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,6 +2997,9 @@
                 <c:pt idx="173">
                   <c:v>45150</c:v>
                 </c:pt>
+                <c:pt idx="174">
+                  <c:v>45154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3515,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4105,6 +4123,9 @@
                 <c:pt idx="173">
                   <c:v>45150</c:v>
                 </c:pt>
+                <c:pt idx="174">
+                  <c:v>45154</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4635,6 +4656,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,13 +5887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12403,6 +12427,43 @@
       </c>
       <c r="K176" s="7">
         <v>473</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B177" s="2">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ref="C177" si="270">SUM(D177:F177)</f>
+        <v>1673</v>
+      </c>
+      <c r="D177">
+        <v>1105</v>
+      </c>
+      <c r="E177">
+        <v>371</v>
+      </c>
+      <c r="F177" s="3">
+        <v>197</v>
+      </c>
+      <c r="G177" s="4">
+        <v>58</v>
+      </c>
+      <c r="H177">
+        <f t="shared" ref="H177" si="271">SUM(I177:K177)</f>
+        <v>5154</v>
+      </c>
+      <c r="I177" s="5">
+        <v>4088</v>
+      </c>
+      <c r="J177" s="6">
+        <v>585</v>
+      </c>
+      <c r="K177" s="7">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F281113-CCCA-6749-8383-E76B8DE571FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB5BC1-FB1E-504D-A3AC-37B90F9E2CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -788,6 +788,9 @@
                 <c:pt idx="174">
                   <c:v>45154</c:v>
                 </c:pt>
+                <c:pt idx="175">
+                  <c:v>45179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1321,6 +1324,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,6 +1899,9 @@
                 <c:pt idx="174">
                   <c:v>45154</c:v>
                 </c:pt>
+                <c:pt idx="175">
+                  <c:v>45179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2426,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>4088</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3000,6 +3012,9 @@
                 <c:pt idx="174">
                   <c:v>45154</c:v>
                 </c:pt>
+                <c:pt idx="175">
+                  <c:v>45179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3532,6 +3547,9 @@
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="174">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>585</c:v>
                 </c:pt>
               </c:numCache>
@@ -4126,6 +4144,9 @@
                 <c:pt idx="174">
                   <c:v>45154</c:v>
                 </c:pt>
+                <c:pt idx="175">
+                  <c:v>45179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4658,6 +4679,9 @@
                   <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="174">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
@@ -5887,13 +5911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12463,6 +12487,43 @@
         <v>585</v>
       </c>
       <c r="K177" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B178" s="2">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ref="C178" si="272">SUM(D178:F178)</f>
+        <v>1673</v>
+      </c>
+      <c r="D178">
+        <v>1105</v>
+      </c>
+      <c r="E178">
+        <v>371</v>
+      </c>
+      <c r="F178" s="3">
+        <v>197</v>
+      </c>
+      <c r="G178" s="4">
+        <v>58</v>
+      </c>
+      <c r="H178">
+        <f t="shared" ref="H178" si="273">SUM(I178:K178)</f>
+        <v>5150</v>
+      </c>
+      <c r="I178" s="5">
+        <v>4084</v>
+      </c>
+      <c r="J178" s="6">
+        <v>585</v>
+      </c>
+      <c r="K178" s="7">
         <v>481</v>
       </c>
     </row>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DB5BC1-FB1E-504D-A3AC-37B90F9E2CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5AB4A-2BF2-904D-A2BE-2FD7A67FBE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
@@ -791,6 +791,12 @@
                 <c:pt idx="175">
                   <c:v>45179</c:v>
                 </c:pt>
+                <c:pt idx="176">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1327,6 +1333,12 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,6 +1914,12 @@
                 <c:pt idx="175">
                   <c:v>45179</c:v>
                 </c:pt>
+                <c:pt idx="176">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2438,6 +2456,12 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>4084</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4105</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,6 +3039,12 @@
                 <c:pt idx="175">
                   <c:v>45179</c:v>
                 </c:pt>
+                <c:pt idx="176">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3551,6 +3581,12 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,6 +4183,12 @@
                 <c:pt idx="175">
                   <c:v>45179</c:v>
                 </c:pt>
+                <c:pt idx="176">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4683,6 +4725,12 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,7 +4757,7 @@
         <c:axId val="1582352671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45175"/>
+          <c:max val="45200"/>
           <c:min val="44379"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5911,13 +5959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
+      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12525,6 +12573,80 @@
       </c>
       <c r="K178" s="7">
         <v>481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B179" s="2">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ref="C179" si="274">SUM(D179:F179)</f>
+        <v>1673</v>
+      </c>
+      <c r="D179">
+        <v>1105</v>
+      </c>
+      <c r="E179">
+        <v>371</v>
+      </c>
+      <c r="F179" s="3">
+        <v>197</v>
+      </c>
+      <c r="G179" s="4">
+        <v>58</v>
+      </c>
+      <c r="H179">
+        <f t="shared" ref="H179" si="275">SUM(I179:K179)</f>
+        <v>5176</v>
+      </c>
+      <c r="I179" s="5">
+        <v>4105</v>
+      </c>
+      <c r="J179" s="6">
+        <v>587</v>
+      </c>
+      <c r="K179" s="7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B180" s="2">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ref="C180" si="276">SUM(D180:F180)</f>
+        <v>1673</v>
+      </c>
+      <c r="D180">
+        <v>1105</v>
+      </c>
+      <c r="E180">
+        <v>371</v>
+      </c>
+      <c r="F180" s="3">
+        <v>197</v>
+      </c>
+      <c r="G180" s="4">
+        <v>58</v>
+      </c>
+      <c r="H180">
+        <f t="shared" ref="H180" si="277">SUM(I180:K180)</f>
+        <v>5178</v>
+      </c>
+      <c r="I180" s="5">
+        <v>4107</v>
+      </c>
+      <c r="J180" s="6">
+        <v>587</v>
+      </c>
+      <c r="K180" s="7">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -12545,7 +12667,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5AB4A-2BF2-904D-A2BE-2FD7A67FBE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5DC47-F34F-184C-AA50-228298976C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -797,6 +797,9 @@
                 <c:pt idx="177">
                   <c:v>45181</c:v>
                 </c:pt>
+                <c:pt idx="178">
+                  <c:v>45184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1339,6 +1342,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>5178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,6 +1926,9 @@
                 <c:pt idx="177">
                   <c:v>45181</c:v>
                 </c:pt>
+                <c:pt idx="178">
+                  <c:v>45184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2461,6 +2470,9 @@
                   <c:v>4105</c:v>
                 </c:pt>
                 <c:pt idx="177">
+                  <c:v>4107</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>4107</c:v>
                 </c:pt>
               </c:numCache>
@@ -3045,6 +3057,9 @@
                 <c:pt idx="177">
                   <c:v>45181</c:v>
                 </c:pt>
+                <c:pt idx="178">
+                  <c:v>45184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3587,6 +3602,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,6 +4207,9 @@
                 <c:pt idx="177">
                   <c:v>45181</c:v>
                 </c:pt>
+                <c:pt idx="178">
+                  <c:v>45184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4730,6 +4751,9 @@
                   <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="177">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
@@ -5959,13 +5983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
+      <selection pane="bottomRight" activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12646,6 +12670,43 @@
         <v>587</v>
       </c>
       <c r="K180" s="7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B181" s="2">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181" si="278">SUM(D181:F181)</f>
+        <v>1673</v>
+      </c>
+      <c r="D181">
+        <v>1105</v>
+      </c>
+      <c r="E181">
+        <v>371</v>
+      </c>
+      <c r="F181" s="3">
+        <v>197</v>
+      </c>
+      <c r="G181" s="4">
+        <v>58</v>
+      </c>
+      <c r="H181">
+        <f t="shared" ref="H181" si="279">SUM(I181:K181)</f>
+        <v>5180</v>
+      </c>
+      <c r="I181" s="5">
+        <v>4107</v>
+      </c>
+      <c r="J181" s="6">
+        <v>589</v>
+      </c>
+      <c r="K181" s="7">
         <v>484</v>
       </c>
     </row>
@@ -12666,7 +12727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>

--- a/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
+++ b/Fotogroep Waalre/Documentation/FotoClubHubLinecount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Fotogroep Waalre 2/Fotogroep Waalre/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5DC47-F34F-184C-AA50-228298976C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7A970-17B7-5A42-8EE4-EED7B0D79FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="35220" windowHeight="26440" activeTab="1" xr2:uid="{1D5C550A-6212-F143-B3FD-423F82763F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -800,6 +800,9 @@
                 <c:pt idx="178">
                   <c:v>45184</c:v>
                 </c:pt>
+                <c:pt idx="179">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1345,6 +1348,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>5180</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,6 +1935,9 @@
                 <c:pt idx="178">
                   <c:v>45184</c:v>
                 </c:pt>
+                <c:pt idx="179">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2474,6 +2483,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>4107</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,6 +3072,9 @@
                 <c:pt idx="178">
                   <c:v>45184</c:v>
                 </c:pt>
+                <c:pt idx="179">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3605,6 +3620,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4210,6 +4228,9 @@
                 <c:pt idx="178">
                   <c:v>45184</c:v>
                 </c:pt>
+                <c:pt idx="179">
+                  <c:v>45186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4755,6 +4776,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,13 +6007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E993F-B784-7448-B38E-9BEFCF4E7032}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I182" sqref="I182"/>
+      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12708,6 +12732,43 @@
       </c>
       <c r="K181" s="7">
         <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ref="C182" si="280">SUM(D182:F182)</f>
+        <v>1673</v>
+      </c>
+      <c r="D182">
+        <v>1105</v>
+      </c>
+      <c r="E182">
+        <v>371</v>
+      </c>
+      <c r="F182" s="3">
+        <v>197</v>
+      </c>
+      <c r="G182" s="4">
+        <v>58</v>
+      </c>
+      <c r="H182">
+        <f t="shared" ref="H182" si="281">SUM(I182:K182)</f>
+        <v>5205</v>
+      </c>
+      <c r="I182" s="5">
+        <v>4126</v>
+      </c>
+      <c r="J182" s="6">
+        <v>594</v>
+      </c>
+      <c r="K182" s="7">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -12727,7 +12788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E980CBD7-53A1-DE45-BAAC-5516721A0BEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
